--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/109.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/109.xlsx
@@ -479,13 +479,13 @@
         <v>0.07864694520822703</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.909972139344022</v>
+        <v>-1.854645367230303</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07504360849653202</v>
+        <v>-0.0555446596218591</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3327656293227002</v>
+        <v>-0.3227894961318964</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.08456718046459903</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.909646317385913</v>
+        <v>-1.852658955099221</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.04881572787829865</v>
+        <v>-0.03065469525673132</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3088767411187196</v>
+        <v>-0.2934356135387599</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.09615805712813899</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.950906867622128</v>
+        <v>-1.888028738773969</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03871390143811129</v>
+        <v>0.04954630103090263</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3686863196899031</v>
+        <v>-0.3480163005889825</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1045771891660546</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.098575832515634</v>
+        <v>-2.028268333414936</v>
       </c>
       <c r="F5" t="n">
-        <v>0.168685382341273</v>
+        <v>0.1695164644373197</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4185118949746764</v>
+        <v>-0.3956476932186626</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1042494209079141</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.938696414288638</v>
+        <v>-1.892125123537154</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3693838384409598</v>
+        <v>0.3686928440467088</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4614511366037591</v>
+        <v>-0.4344220802527837</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.09430786541362643</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.795571642598327</v>
+        <v>-1.742509096990599</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5263497472744283</v>
+        <v>0.514983755199516</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.469381044936872</v>
+        <v>-0.4413414683100216</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.07819481880291185</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.444474872448799</v>
+        <v>-1.401530121752792</v>
       </c>
       <c r="F8" t="n">
-        <v>0.763083797137173</v>
+        <v>0.7509764420561281</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4865614636458691</v>
+        <v>-0.4535841890354983</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.06054657917838017</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9335514137128383</v>
+        <v>-0.8973851763627124</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9287508836731917</v>
+        <v>0.8993765388314783</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4579945906133829</v>
+        <v>-0.426356806275239</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.04554345907334331</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3268473174266096</v>
+        <v>-0.2857119017105374</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9748224233536629</v>
+        <v>0.9315620818238347</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4156424581165453</v>
+        <v>-0.3867135606861599</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.03553779044947579</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3594848321870998</v>
+        <v>0.387680236706959</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9373292878842805</v>
+        <v>0.8938926562128666</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3382306237118561</v>
+        <v>-0.3043388439920097</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.02852584795809721</v>
       </c>
       <c r="E12" t="n">
-        <v>1.147855919377369</v>
+        <v>1.162675309404415</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9396336518778646</v>
+        <v>0.8893972576024319</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2137808018862172</v>
+        <v>-0.1930430999630807</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.02429103906316617</v>
       </c>
       <c r="E13" t="n">
-        <v>2.016163567642893</v>
+        <v>2.009392137383057</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7556859072670598</v>
+        <v>0.7096112195483461</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04762104736523144</v>
+        <v>-0.03506037477725194</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.0305699066066902</v>
       </c>
       <c r="E14" t="n">
-        <v>2.89088849186596</v>
+        <v>2.860387149333396</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5671860993574533</v>
+        <v>0.5222053549280435</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1246663635949779</v>
+        <v>0.1339105778943769</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.05688137883101465</v>
       </c>
       <c r="E15" t="n">
-        <v>3.874773216170352</v>
+        <v>3.818653138419497</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3853365222353423</v>
+        <v>0.3402943910602018</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3069236116695059</v>
+        <v>0.3103974718702165</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1037207710384803</v>
       </c>
       <c r="E16" t="n">
-        <v>4.74191136822875</v>
+        <v>4.646846909378674</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1450987058085822</v>
+        <v>0.0931844071498429</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5379313799689587</v>
+        <v>0.5356537743004366</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1646919005336428</v>
       </c>
       <c r="E17" t="n">
-        <v>5.522138480485409</v>
+        <v>5.413074695570485</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02514405431305761</v>
+        <v>-0.090585473300255</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7725546701900392</v>
+        <v>0.7664159956169666</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2331254358905216</v>
       </c>
       <c r="E18" t="n">
-        <v>6.305856767153113</v>
+        <v>6.171632286584197</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2651032693553474</v>
+        <v>-0.330330621742048</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9070845104684877</v>
+        <v>0.8930977765566098</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.303930421177007</v>
       </c>
       <c r="E19" t="n">
-        <v>6.891105408796892</v>
+        <v>6.743684351914991</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5411578908873047</v>
+        <v>-0.6086911812867107</v>
       </c>
       <c r="G19" t="n">
-        <v>1.156638946074227</v>
+        <v>1.143083493401585</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.3716158346431742</v>
       </c>
       <c r="E20" t="n">
-        <v>7.404758216689189</v>
+        <v>7.224682559116784</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8142911329301279</v>
+        <v>-0.8830789165692104</v>
       </c>
       <c r="G20" t="n">
-        <v>1.372946949799852</v>
+        <v>1.355037760237693</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4279769127404212</v>
       </c>
       <c r="E21" t="n">
-        <v>7.731453755410753</v>
+        <v>7.547221113338992</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.118279871807808</v>
+        <v>-1.181707333329302</v>
       </c>
       <c r="G21" t="n">
-        <v>1.586931701302438</v>
+        <v>1.562789396019928</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4667318849590584</v>
       </c>
       <c r="E22" t="n">
-        <v>7.959270986951329</v>
+        <v>7.772227146728926</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.325101262289355</v>
+        <v>-1.392001797001998</v>
       </c>
       <c r="G22" t="n">
-        <v>1.812718448176537</v>
+        <v>1.782599592290448</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.4907276036613786</v>
       </c>
       <c r="E23" t="n">
-        <v>8.138454175681957</v>
+        <v>7.941873353603593</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.531974595401904</v>
+        <v>-1.598788559062876</v>
       </c>
       <c r="G23" t="n">
-        <v>1.959465824874521</v>
+        <v>1.914403231450804</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.5092010799035641</v>
       </c>
       <c r="E24" t="n">
-        <v>8.24121243999695</v>
+        <v>8.053173819689885</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.702979180778253</v>
+        <v>-1.757899855958677</v>
       </c>
       <c r="G24" t="n">
-        <v>2.06719169353634</v>
+        <v>2.012175003189517</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.5299009855880785</v>
       </c>
       <c r="E25" t="n">
-        <v>8.25619395399349</v>
+        <v>8.074289286202134</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.835929492868477</v>
+        <v>-1.883981148603544</v>
       </c>
       <c r="G25" t="n">
-        <v>2.164335431645655</v>
+        <v>2.109367535891592</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.5537986039643878</v>
       </c>
       <c r="E26" t="n">
-        <v>8.225914548157029</v>
+        <v>8.05906065120355</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.959199587362701</v>
+        <v>-2.003172172544918</v>
       </c>
       <c r="G26" t="n">
-        <v>2.202319661080883</v>
+        <v>2.149316141190204</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.5783597475466012</v>
       </c>
       <c r="E27" t="n">
-        <v>8.149415644842694</v>
+        <v>7.975828094088291</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.022352382547527</v>
+        <v>-2.064333833541298</v>
       </c>
       <c r="G27" t="n">
-        <v>2.256864145691316</v>
+        <v>2.196505234446798</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.5998204823377338</v>
       </c>
       <c r="E28" t="n">
-        <v>8.040517131935507</v>
+        <v>7.867137351705114</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.05081851835625</v>
+        <v>-2.09720328784186</v>
       </c>
       <c r="G28" t="n">
-        <v>2.248240094925709</v>
+        <v>2.187654524927725</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.6155164653039785</v>
       </c>
       <c r="E29" t="n">
-        <v>7.873090292021874</v>
+        <v>7.704135079541458</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.997469501268445</v>
+        <v>-2.040678687176831</v>
       </c>
       <c r="G29" t="n">
-        <v>2.201647554916088</v>
+        <v>2.14265646628798</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.6241094716438962</v>
       </c>
       <c r="E30" t="n">
-        <v>7.634278536919012</v>
+        <v>7.463075625133379</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.978918898914356</v>
+        <v>-2.026527468266777</v>
       </c>
       <c r="G30" t="n">
-        <v>2.102851096729407</v>
+        <v>2.050422093818002</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6257806211764209</v>
       </c>
       <c r="E31" t="n">
-        <v>7.405789199213641</v>
+        <v>7.238601610206445</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.927144687957412</v>
+        <v>-1.975967613061917</v>
       </c>
       <c r="G31" t="n">
-        <v>2.050425241856245</v>
+        <v>1.994701816923958</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6215665120761773</v>
       </c>
       <c r="E32" t="n">
-        <v>7.206564025011491</v>
+        <v>7.042977791753832</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.847840095559359</v>
+        <v>-1.899071269919454</v>
       </c>
       <c r="G32" t="n">
-        <v>1.974198643849896</v>
+        <v>1.921686217925062</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6125856341451309</v>
       </c>
       <c r="E33" t="n">
-        <v>6.895860520562342</v>
+        <v>6.742549484128533</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.804268098243514</v>
+        <v>-1.856321697594488</v>
       </c>
       <c r="G33" t="n">
-        <v>1.863938604402782</v>
+        <v>1.819041282986801</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5991100154185022</v>
       </c>
       <c r="E34" t="n">
-        <v>6.598825798162568</v>
+        <v>6.459038734018975</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.746607842782466</v>
+        <v>-1.800779284861151</v>
       </c>
       <c r="G34" t="n">
-        <v>1.781663050913274</v>
+        <v>1.735884278789365</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5811657215916418</v>
       </c>
       <c r="E35" t="n">
-        <v>6.250964424316873</v>
+        <v>6.113801250048488</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.755670257873355</v>
+        <v>-1.809445047133472</v>
       </c>
       <c r="G35" t="n">
-        <v>1.653638631663161</v>
+        <v>1.615230991084303</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5589845291246519</v>
       </c>
       <c r="E36" t="n">
-        <v>5.869721252946634</v>
+        <v>5.739390895683815</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.762232343590057</v>
+        <v>-1.814331589495549</v>
       </c>
       <c r="G36" t="n">
-        <v>1.562861800899508</v>
+        <v>1.528722900177617</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5322192754959625</v>
       </c>
       <c r="E37" t="n">
-        <v>5.47228142481821</v>
+        <v>5.352934572983828</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.737186551331921</v>
+        <v>-1.790705562484826</v>
       </c>
       <c r="G37" t="n">
-        <v>1.439878964894922</v>
+        <v>1.411371904589045</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5010726165752115</v>
       </c>
       <c r="E38" t="n">
-        <v>5.127928539593895</v>
+        <v>5.012460070874397</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.736039878402053</v>
+        <v>-1.785390886921754</v>
       </c>
       <c r="G38" t="n">
-        <v>1.335096511989935</v>
+        <v>1.308572715776897</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4662260645762166</v>
       </c>
       <c r="E39" t="n">
-        <v>4.754357137420874</v>
+        <v>4.640043998736412</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.739123381860681</v>
+        <v>-1.781115850988302</v>
       </c>
       <c r="G39" t="n">
-        <v>1.24718597004617</v>
+        <v>1.218734000409539</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.428940723128126</v>
       </c>
       <c r="E40" t="n">
-        <v>4.389534133524044</v>
+        <v>4.286190334095926</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.757942354474952</v>
+        <v>-1.794646119355002</v>
       </c>
       <c r="G40" t="n">
-        <v>1.186759375979437</v>
+        <v>1.162206251706267</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3913137284973089</v>
       </c>
       <c r="E41" t="n">
-        <v>4.073071293110055</v>
+        <v>3.979543076922368</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.818113957444035</v>
+        <v>-1.856277625059092</v>
       </c>
       <c r="G41" t="n">
-        <v>1.127365338456276</v>
+        <v>1.10054090459107</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3545427412058219</v>
       </c>
       <c r="E42" t="n">
-        <v>3.661152063084786</v>
+        <v>3.573055786884708</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.809785822273233</v>
+        <v>-1.839531635627573</v>
       </c>
       <c r="G42" t="n">
-        <v>1.050727921459267</v>
+        <v>1.027371051718286</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3201507773164166</v>
       </c>
       <c r="E43" t="n">
-        <v>3.378409434306422</v>
+        <v>3.301720074678411</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.815915052731578</v>
+        <v>-1.852437018403118</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9694062235572671</v>
+        <v>0.9518653544694923</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2876719635909354</v>
       </c>
       <c r="E44" t="n">
-        <v>3.088878061057889</v>
+        <v>3.019386690871585</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.828518223835833</v>
+        <v>-1.859957681764693</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8739970545196259</v>
+        <v>0.8561618438561679</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2570683509600275</v>
       </c>
       <c r="E45" t="n">
-        <v>2.831634542044596</v>
+        <v>2.764677342643586</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.805142465865396</v>
+        <v>-1.828046805109003</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8181366899237859</v>
+        <v>0.7994137324759142</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2278786741781837</v>
       </c>
       <c r="E46" t="n">
-        <v>2.608383539974913</v>
+        <v>2.539318728970481</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.751567577033684</v>
+        <v>-1.768844010909081</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7538254166656824</v>
+        <v>0.7395616553884555</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1992079762230978</v>
       </c>
       <c r="E47" t="n">
-        <v>2.365403782238847</v>
+        <v>2.307741165749118</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.71747274884719</v>
+        <v>-1.730247488035667</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6759114701612984</v>
+        <v>0.6648508377959184</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1710413270624966</v>
       </c>
       <c r="E48" t="n">
-        <v>2.168534914661285</v>
+        <v>2.10566229488005</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.624786632889399</v>
+        <v>-1.625771181849773</v>
       </c>
       <c r="G48" t="n">
-        <v>0.570801621279081</v>
+        <v>0.554312196964335</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1437162828643864</v>
       </c>
       <c r="E49" t="n">
-        <v>1.994808850224207</v>
+        <v>1.936680324074572</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.578545099143828</v>
+        <v>-1.5744455663424</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5336516219781422</v>
+        <v>0.5139118481779102</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1180690909341465</v>
       </c>
       <c r="E50" t="n">
-        <v>1.89899358425327</v>
+        <v>1.84609867168196</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.49826697591925</v>
+        <v>-1.48681913485003</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4656209415364052</v>
+        <v>0.4417651077339719</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.09373396878624345</v>
       </c>
       <c r="E51" t="n">
-        <v>1.723754887440622</v>
+        <v>1.669421321392443</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.478433547981301</v>
+        <v>-1.464234321488047</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4008815350773078</v>
+        <v>0.3824261608800573</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.07001178619136769</v>
       </c>
       <c r="E52" t="n">
-        <v>1.580690715486481</v>
+        <v>1.530200904132519</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.439730778817199</v>
+        <v>-1.42565826086321</v>
       </c>
       <c r="G52" t="n">
-        <v>0.343661217960664</v>
+        <v>0.3267231981963473</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.0467833200288687</v>
       </c>
       <c r="E53" t="n">
-        <v>1.503960431361315</v>
+        <v>1.453412381299865</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.384573213759019</v>
+        <v>-1.369218657230731</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3096749970935395</v>
+        <v>0.2968341491019685</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.02337167036061047</v>
       </c>
       <c r="E54" t="n">
-        <v>1.393462715026885</v>
+        <v>1.342390516598042</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.298704174615582</v>
+        <v>-1.279631784922781</v>
       </c>
       <c r="G54" t="n">
-        <v>0.26978935255978</v>
+        <v>0.2542144333545098</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.0001395039438997619</v>
       </c>
       <c r="E55" t="n">
-        <v>1.270511359404725</v>
+        <v>1.222258229222131</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.261409365555483</v>
+        <v>-1.236372230402514</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2282006193367733</v>
+        <v>0.211547497033412</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.02328525066624852</v>
       </c>
       <c r="E56" t="n">
-        <v>1.222881540794166</v>
+        <v>1.167520140259778</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.237809309860261</v>
+        <v>-1.211176119318293</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2070473763656134</v>
+        <v>0.1872021432842543</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.04713018992234296</v>
       </c>
       <c r="E57" t="n">
-        <v>1.15812009806737</v>
+        <v>1.099842040101213</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.216098864120161</v>
+        <v>-1.190620216603667</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1638515696197586</v>
+        <v>0.1487000615581182</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.07180503968328339</v>
       </c>
       <c r="E58" t="n">
-        <v>1.082065068145243</v>
+        <v>1.032922617159114</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.223508559133684</v>
+        <v>-1.19771589480249</v>
       </c>
       <c r="G58" t="n">
-        <v>0.148693765481633</v>
+        <v>0.1312394674455296</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.09820194060691102</v>
       </c>
       <c r="E59" t="n">
-        <v>1.03346250571772</v>
+        <v>0.9856705631376672</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.234702196114814</v>
+        <v>-1.20778410811189</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1359725429432808</v>
+        <v>0.1189133237066239</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1265831915389342</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9749105684244557</v>
+        <v>0.9365580185148431</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.236611481308951</v>
+        <v>-1.21137759376582</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1049989946743259</v>
+        <v>0.09008044144263794</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.157647930256222</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9534976122982811</v>
+        <v>0.9169142598810105</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.233509876630428</v>
+        <v>-1.201001659718205</v>
       </c>
       <c r="G61" t="n">
-        <v>0.09583820338835586</v>
+        <v>0.08070400953704975</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1910984641699318</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8971650419660508</v>
+        <v>0.8636777851603786</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.239433697593444</v>
+        <v>-1.207818736532559</v>
       </c>
       <c r="G62" t="n">
-        <v>0.09299080279792291</v>
+        <v>0.07842168181116374</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2263737238601969</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8526958537510638</v>
+        <v>0.8212957463002364</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.287482992299829</v>
+        <v>-1.247240045425534</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06082887009238595</v>
+        <v>0.05021998121481932</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2629959750529312</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7908668086472515</v>
+        <v>0.7603528739617164</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.307820893366155</v>
+        <v>-1.264289033537903</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03983302903335608</v>
+        <v>0.03063288726935356</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.299855942117822</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7501815623998713</v>
+        <v>0.7202563108657026</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.359846947382507</v>
+        <v>-1.318561999849911</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.006433689018156336</v>
+        <v>-0.01708507641199809</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3363489808151465</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6952545911429625</v>
+        <v>0.6708840530878639</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.406685034375051</v>
+        <v>-1.360759878472861</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03365005364456653</v>
+        <v>-0.04108414595446968</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3714510093121307</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6568878750612582</v>
+        <v>0.6461467685775023</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.47809434686066</v>
+        <v>-1.424613112166666</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.06638178127201433</v>
+        <v>-0.07384420592610089</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4041555822144218</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6136889202771608</v>
+        <v>0.6147781415091009</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.532248474729011</v>
+        <v>-1.475736466216952</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.09122924712086698</v>
+        <v>-0.0956081683163255</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4339632348236987</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5409251643376727</v>
+        <v>0.5529239120993478</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.567819732851285</v>
+        <v>-1.514625756646928</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.09372878948549249</v>
+        <v>-0.09402942713766091</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4606151234071114</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4480391479514765</v>
+        <v>0.4625185498483215</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.649006065108853</v>
+        <v>-1.593998031867197</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1215873539133934</v>
+        <v>-0.1207421056452549</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4839143712674783</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3302427049515756</v>
+        <v>0.354780089033532</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.716023864246033</v>
+        <v>-1.659430006739667</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1425548626282398</v>
+        <v>-0.1366097924070871</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5029192885800775</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2245363028223853</v>
+        <v>0.2572869186792887</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.812346751383589</v>
+        <v>-1.747464896194014</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1609362579267893</v>
+        <v>-0.1486274283982179</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5166170278392173</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1379432148831493</v>
+        <v>0.1781326451073197</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.895957860097521</v>
+        <v>-1.827296784997703</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1854091072247723</v>
+        <v>-0.1695067920422715</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5247689841415102</v>
       </c>
       <c r="E74" t="n">
-        <v>0.007831646278191797</v>
+        <v>0.05166335674905205</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.926773219444785</v>
+        <v>-1.854214085991066</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2129812001725965</v>
+        <v>-0.1963233558118713</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5271099627576668</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.06034226990358359</v>
+        <v>-0.01132574044715887</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.00693880030219</v>
+        <v>-1.929390813243508</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2455901543085828</v>
+        <v>-0.2289291619096151</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5233602829207473</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1342188573618314</v>
+        <v>-0.08277361640123969</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.038416821699522</v>
+        <v>-1.966427483167714</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.258667105168349</v>
+        <v>-0.2402369152770392</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5130892963602955</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.2074312087508903</v>
+        <v>-0.1446892325567236</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.061192878384743</v>
+        <v>-1.989905552381035</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2739099063390248</v>
+        <v>-0.2547383534415824</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4960018214041779</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2374949739677334</v>
+        <v>-0.1706778622685192</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.020130654557811</v>
+        <v>-1.957825468669805</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2584829449311568</v>
+        <v>-0.2377515390845054</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4727129832066356</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.2612500705464034</v>
+        <v>-0.1953128355359963</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.033865545410281</v>
+        <v>-1.967696142579482</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2574991829803439</v>
+        <v>-0.2362215924986011</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4437074757728557</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2620260619732046</v>
+        <v>-0.1945950828166832</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.996294495994394</v>
+        <v>-1.946029769374778</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.228593895836778</v>
+        <v>-0.2056069205893028</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4098715037359077</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2416614025818163</v>
+        <v>-0.1704102790178981</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.979469805606811</v>
+        <v>-1.935904104367451</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2234562974248526</v>
+        <v>-0.1985537409067544</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3719875028627345</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1550557224896099</v>
+        <v>-0.08320017558311218</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.917152814575396</v>
+        <v>-1.877410405781675</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2359555832671013</v>
+        <v>-0.213052031033055</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3308410853251584</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0128763775619605</v>
+        <v>0.0840267639021155</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.846474633971631</v>
+        <v>-1.810008545978897</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1897958985158374</v>
+        <v>-0.1661714455242353</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2883216920211971</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1694519296533464</v>
+        <v>0.2353639803578127</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.729596631129009</v>
+        <v>-1.701682976031862</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1448041359525785</v>
+        <v>-0.1204162836871456</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2455376703224445</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3652174098268768</v>
+        <v>0.4136122017303878</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.557622449973938</v>
+        <v>-1.535570442084516</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1168338161670653</v>
+        <v>-0.09220356495695212</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2035994167803684</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6197536159515323</v>
+        <v>0.6589923386264372</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.387640190016874</v>
+        <v>-1.375606026824969</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.0299337944991756</v>
+        <v>-0.006553314471375188</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1635939839686933</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8991593241927388</v>
+        <v>0.9313448671850952</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.168338401922534</v>
+        <v>-1.165967929125855</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02669154338961664</v>
+        <v>0.04494072108197681</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1263383696148447</v>
       </c>
       <c r="E88" t="n">
-        <v>1.131306682336013</v>
+        <v>1.155620555702745</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9968915171730993</v>
+        <v>-0.9978233364929093</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07455589084924925</v>
+        <v>0.09198815261765438</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.09303650886225649</v>
       </c>
       <c r="E89" t="n">
-        <v>1.370589069156144</v>
+        <v>1.382965581506931</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.756568703713789</v>
+        <v>-0.7713392991480746</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1292593513909334</v>
+        <v>0.1483443332367042</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.06453641552993512</v>
       </c>
       <c r="E90" t="n">
-        <v>1.574432415460189</v>
+        <v>1.567110078507899</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4918407237787115</v>
+        <v>-0.5199464092086566</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1563230361625774</v>
+        <v>0.1690379626244443</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.04239011442866272</v>
       </c>
       <c r="E91" t="n">
-        <v>1.750626541879467</v>
+        <v>1.737869116901325</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2116605981298252</v>
+        <v>-0.2402605255638587</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1192139613587924</v>
+        <v>0.1256406814310631</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.02758211009076422</v>
       </c>
       <c r="E92" t="n">
-        <v>1.798409040344792</v>
+        <v>1.777957809901732</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.0182592946764884</v>
+        <v>-0.05026225145077399</v>
       </c>
       <c r="G92" t="n">
-        <v>0.136120500740683</v>
+        <v>0.1377716467989275</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.02098093847634346</v>
       </c>
       <c r="E93" t="n">
-        <v>1.795043787463451</v>
+        <v>1.777485604165342</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1926576935586825</v>
+        <v>0.1564804380747075</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09783878169152903</v>
+        <v>0.1019501196363664</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.0221995831605359</v>
       </c>
       <c r="E94" t="n">
-        <v>1.725064471349544</v>
+        <v>1.705751256731185</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3669472568411863</v>
+        <v>0.3307385209747853</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1041395802340957</v>
+        <v>0.1073143768017592</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.03004431233197995</v>
       </c>
       <c r="E95" t="n">
-        <v>1.686567111680772</v>
+        <v>1.667217694622622</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4666188696593098</v>
+        <v>0.4362324305226</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04333522157825011</v>
+        <v>0.04367363568932976</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04318053929985238</v>
       </c>
       <c r="E96" t="n">
-        <v>1.57407039106229</v>
+        <v>1.552561419769716</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5343300242194228</v>
+        <v>0.5062652632866315</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02674640577854171</v>
+        <v>-0.02223211893865134</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05842899324963723</v>
       </c>
       <c r="E97" t="n">
-        <v>1.527791080857807</v>
+        <v>1.500955628858752</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5382713680991597</v>
+        <v>0.5132444640704787</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04687968435909881</v>
+        <v>-0.04203170546549269</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.07330119436742177</v>
       </c>
       <c r="E98" t="n">
-        <v>1.400764589730599</v>
+        <v>1.374406065525298</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5567078540669547</v>
+        <v>0.5357277531991378</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1109359665195516</v>
+        <v>-0.1086048442009053</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08479864730341395</v>
       </c>
       <c r="E99" t="n">
-        <v>1.319390949197596</v>
+        <v>1.292897059347863</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5587005622745214</v>
+        <v>0.5342906737413903</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1127004419545297</v>
+        <v>-0.1090188112298074</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.09385645464008871</v>
       </c>
       <c r="E100" t="n">
-        <v>1.210763167579272</v>
+        <v>1.179123809222007</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5649761765111472</v>
+        <v>0.5389356041683486</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.155852176164988</v>
+        <v>-0.1563983608000794</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1021734405665524</v>
       </c>
       <c r="E101" t="n">
-        <v>1.109497073391271</v>
+        <v>1.075229103101434</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5072159708358971</v>
+        <v>0.486569562021796</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1862984280283072</v>
+        <v>-0.1815134098995531</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1188943182614298</v>
       </c>
       <c r="E102" t="n">
-        <v>1.023980614531005</v>
+        <v>0.9959772403439441</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4721389547177113</v>
+        <v>0.4555094427011695</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2294359960666739</v>
+        <v>-0.2233508381437254</v>
       </c>
     </row>
   </sheetData>
